--- a/data/progproj_indices.xlsx
+++ b/data/progproj_indices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanne\Documents\GitHub\Homework\Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{21DD7E1F-A36B-40DE-8E3E-157A5444993A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E20B0867-683B-4B0A-8126-052CED273609}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="55" uniqueCount="55">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="56" uniqueCount="56">
   <si>
     <t>State</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Grocery</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
   </si>
 </sst>
 </file>
@@ -1030,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1193,271 +1196,271 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B10">
-        <v>99.3</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="C10">
-        <v>104.4</v>
+        <v>112.4</v>
       </c>
       <c r="D10">
-        <v>97.4</v>
+        <v>269.8</v>
       </c>
       <c r="E10">
-        <v>102.9</v>
+        <v>116.4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>90.8</v>
+        <v>99.3</v>
       </c>
       <c r="C11">
-        <v>98.9</v>
+        <v>104.4</v>
       </c>
       <c r="D11">
-        <v>75.5</v>
+        <v>97.4</v>
       </c>
       <c r="E11">
-        <v>94.6</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>188.3</v>
+        <v>90.8</v>
       </c>
       <c r="C12">
-        <v>162.6</v>
+        <v>98.9</v>
       </c>
       <c r="D12">
-        <v>301.7</v>
+        <v>75.5</v>
       </c>
       <c r="E12">
-        <v>190.1</v>
+        <v>94.6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>92.2</v>
+        <v>188.3</v>
       </c>
       <c r="C13">
-        <v>90.4</v>
+        <v>162.6</v>
       </c>
       <c r="D13">
-        <v>81.2</v>
+        <v>301.7</v>
       </c>
       <c r="E13">
-        <v>94.3</v>
+        <v>190.1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>97.2</v>
+        <v>92.2</v>
       </c>
       <c r="C14">
-        <v>96.2</v>
+        <v>90.4</v>
       </c>
       <c r="D14">
-        <v>90.4</v>
+        <v>81.2</v>
       </c>
       <c r="E14">
-        <v>96.1</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>91.1</v>
+        <v>97.2</v>
       </c>
       <c r="C15">
-        <v>94.6</v>
+        <v>96.2</v>
       </c>
       <c r="D15">
-        <v>77.7</v>
+        <v>90.4</v>
       </c>
       <c r="E15">
-        <v>94.6</v>
+        <v>96.1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>91.3</v>
+        <v>91.1</v>
       </c>
       <c r="C16">
-        <v>94</v>
+        <v>94.6</v>
       </c>
       <c r="D16">
-        <v>80.400000000000006</v>
+        <v>77.7</v>
       </c>
       <c r="E16">
-        <v>95.4</v>
+        <v>94.6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>90.2</v>
+        <v>91.3</v>
       </c>
       <c r="C17">
-        <v>94.5</v>
+        <v>94</v>
       </c>
       <c r="D17">
-        <v>77.2</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="E17">
-        <v>98.2</v>
+        <v>95.4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>93.7</v>
+        <v>90.2</v>
       </c>
       <c r="C18">
-        <v>89.9</v>
+        <v>94.5</v>
       </c>
       <c r="D18">
-        <v>84.5</v>
+        <v>77.2</v>
       </c>
       <c r="E18">
-        <v>96.7</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>94.4</v>
+        <v>93.7</v>
       </c>
       <c r="C19">
-        <v>98.3</v>
+        <v>89.9</v>
       </c>
       <c r="D19">
-        <v>87.9</v>
+        <v>84.5</v>
       </c>
       <c r="E19">
-        <v>94.2</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>113.6</v>
+        <v>94.4</v>
       </c>
       <c r="C20">
-        <v>100.6</v>
+        <v>98.3</v>
       </c>
       <c r="D20">
-        <v>124.9</v>
+        <v>87.9</v>
       </c>
       <c r="E20">
-        <v>117.3</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>128.69999999999999</v>
+        <v>113.6</v>
       </c>
       <c r="C21">
-        <v>111.6</v>
+        <v>100.6</v>
       </c>
       <c r="D21">
-        <v>183.1</v>
+        <v>124.9</v>
       </c>
       <c r="E21">
-        <v>104.2</v>
+        <v>117.3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>132.9</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="C22">
-        <v>109.7</v>
+        <v>111.6</v>
       </c>
       <c r="D22">
-        <v>172.6</v>
+        <v>183.1</v>
       </c>
       <c r="E22">
-        <v>122.1</v>
+        <v>104.2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>89.7</v>
+        <v>132.9</v>
       </c>
       <c r="C23">
-        <v>91.7</v>
+        <v>109.7</v>
       </c>
       <c r="D23">
-        <v>79.2</v>
+        <v>172.6</v>
       </c>
       <c r="E23">
-        <v>91.9</v>
+        <v>122.1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>99.7</v>
+        <v>89.7</v>
       </c>
       <c r="C24">
-        <v>106.9</v>
+        <v>91.7</v>
       </c>
       <c r="D24">
-        <v>89.5</v>
+        <v>79.2</v>
       </c>
       <c r="E24">
-        <v>89.6</v>
+        <v>91.9</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>85.1</v>
+        <v>99.7</v>
       </c>
       <c r="C25">
-        <v>94.2</v>
+        <v>106.9</v>
       </c>
       <c r="D25">
-        <v>70.7</v>
+        <v>89.5</v>
       </c>
       <c r="E25">
         <v>89.6</v>
@@ -1465,447 +1468,465 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>89.9</v>
+        <v>85.1</v>
       </c>
       <c r="C26">
-        <v>98.3</v>
+        <v>94.2</v>
       </c>
       <c r="D26">
-        <v>74.2</v>
+        <v>70.7</v>
       </c>
       <c r="E26">
-        <v>103.2</v>
+        <v>89.6</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>100.4</v>
+        <v>89.9</v>
       </c>
       <c r="C27">
-        <v>102.2</v>
+        <v>98.3</v>
       </c>
       <c r="D27">
-        <v>107.8</v>
+        <v>74.2</v>
       </c>
       <c r="E27">
-        <v>77.5</v>
+        <v>103.2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>92.9</v>
+        <v>100.4</v>
       </c>
       <c r="C28">
-        <v>95.8</v>
+        <v>102.2</v>
       </c>
       <c r="D28">
-        <v>87.8</v>
+        <v>107.8</v>
       </c>
       <c r="E28">
-        <v>86.7</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>104.7</v>
+        <v>92.9</v>
       </c>
       <c r="C29">
-        <v>101.4</v>
+        <v>95.8</v>
       </c>
       <c r="D29">
-        <v>108.3</v>
+        <v>87.8</v>
       </c>
       <c r="E29">
-        <v>85.9</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>115</v>
+        <v>104.7</v>
       </c>
       <c r="C30">
-        <v>114</v>
+        <v>101.4</v>
       </c>
       <c r="D30">
-        <v>110.1</v>
+        <v>108.3</v>
       </c>
       <c r="E30">
-        <v>132</v>
+        <v>85.9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>121.9</v>
+        <v>115</v>
       </c>
       <c r="C31">
-        <v>105.8</v>
+        <v>114</v>
       </c>
       <c r="D31">
-        <v>151.30000000000001</v>
+        <v>110.1</v>
       </c>
       <c r="E31">
-        <v>115.6</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>94.9</v>
+        <v>121.9</v>
       </c>
       <c r="C32">
-        <v>93.2</v>
+        <v>105.8</v>
       </c>
       <c r="D32">
-        <v>93.5</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="E32">
-        <v>84.4</v>
+        <v>115.6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>132.5</v>
+        <v>94.9</v>
       </c>
       <c r="C33">
-        <v>111</v>
+        <v>93.2</v>
       </c>
       <c r="D33">
-        <v>189.2</v>
+        <v>93.5</v>
       </c>
       <c r="E33">
-        <v>105.2</v>
+        <v>84.4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>94.6</v>
+        <v>132.5</v>
       </c>
       <c r="C34">
-        <v>98.5</v>
+        <v>111</v>
       </c>
       <c r="D34">
-        <v>84.2</v>
+        <v>189.2</v>
       </c>
       <c r="E34">
-        <v>97</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>99.7</v>
+        <v>94.6</v>
       </c>
       <c r="C35">
-        <v>105.3</v>
+        <v>98.5</v>
       </c>
       <c r="D35">
-        <v>94.9</v>
+        <v>84.2</v>
       </c>
       <c r="E35">
-        <v>85.1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>92.3</v>
+        <v>99.7</v>
       </c>
       <c r="C36">
-        <v>99.3</v>
+        <v>105.3</v>
       </c>
       <c r="D36">
-        <v>76.8</v>
+        <v>94.9</v>
       </c>
       <c r="E36">
-        <v>93.1</v>
+        <v>85.1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>89.2</v>
+        <v>92.3</v>
       </c>
       <c r="C37">
-        <v>95.5</v>
+        <v>99.3</v>
       </c>
       <c r="D37">
-        <v>75.2</v>
+        <v>76.8</v>
       </c>
       <c r="E37">
-        <v>98.1</v>
+        <v>93.1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>129.30000000000001</v>
+        <v>89.2</v>
       </c>
       <c r="C38">
-        <v>115.6</v>
+        <v>95.5</v>
       </c>
       <c r="D38">
-        <v>179</v>
+        <v>75.2</v>
       </c>
       <c r="E38">
-        <v>78.400000000000006</v>
+        <v>98.1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>102</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="C39">
-        <v>104.2</v>
+        <v>115.6</v>
       </c>
       <c r="D39">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="E39">
-        <v>110.4</v>
+        <v>78.400000000000006</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>123.6</v>
+        <v>102</v>
       </c>
       <c r="C40">
-        <v>115.4</v>
+        <v>104.2</v>
       </c>
       <c r="D40">
-        <v>140.69999999999999</v>
+        <v>100</v>
       </c>
       <c r="E40">
-        <v>127.4</v>
+        <v>110.4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>99.5</v>
+        <v>123.6</v>
       </c>
       <c r="C41">
-        <v>102.9</v>
+        <v>115.4</v>
       </c>
       <c r="D41">
-        <v>87.6</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E41">
-        <v>111.7</v>
+        <v>127.4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>99.5</v>
       </c>
       <c r="C42">
-        <v>102.3</v>
+        <v>102.9</v>
       </c>
       <c r="D42">
-        <v>110.2</v>
+        <v>87.6</v>
       </c>
       <c r="E42">
-        <v>97.1</v>
+        <v>111.7</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>89.8</v>
+        <v>99.5</v>
       </c>
       <c r="C43">
-        <v>92.5</v>
+        <v>102.3</v>
       </c>
       <c r="D43">
-        <v>78.3</v>
+        <v>110.2</v>
       </c>
       <c r="E43">
-        <v>94.3</v>
+        <v>97.1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>91.2</v>
+        <v>89.8</v>
       </c>
       <c r="C44">
-        <v>90.2</v>
+        <v>92.5</v>
       </c>
       <c r="D44">
-        <v>84.8</v>
+        <v>78.3</v>
       </c>
       <c r="E44">
-        <v>99.5</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45">
-        <v>95.7</v>
+        <v>91.2</v>
       </c>
       <c r="C45">
-        <v>101.8</v>
+        <v>90.2</v>
       </c>
       <c r="D45">
-        <v>94.1</v>
+        <v>84.8</v>
       </c>
       <c r="E45">
-        <v>79.7</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>120.7</v>
+        <v>95.7</v>
       </c>
       <c r="C46">
-        <v>112.3</v>
+        <v>101.8</v>
       </c>
       <c r="D46">
-        <v>146.9</v>
+        <v>94.1</v>
       </c>
       <c r="E46">
-        <v>119.8</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>102.2</v>
+        <v>120.7</v>
       </c>
       <c r="C47">
-        <v>97.2</v>
+        <v>112.3</v>
       </c>
       <c r="D47">
-        <v>111.6</v>
+        <v>146.9</v>
       </c>
       <c r="E47">
-        <v>100.1</v>
+        <v>119.8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>107.1</v>
+        <v>102.2</v>
       </c>
       <c r="C48">
-        <v>107.4</v>
+        <v>97.2</v>
       </c>
       <c r="D48">
-        <v>107.8</v>
+        <v>111.6</v>
       </c>
       <c r="E48">
-        <v>94</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>95.9</v>
+        <v>107.1</v>
       </c>
       <c r="C49">
-        <v>103.5</v>
+        <v>107.4</v>
       </c>
       <c r="D49">
-        <v>87.2</v>
+        <v>107.8</v>
       </c>
       <c r="E49">
-        <v>88.8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>96.2</v>
+        <v>95.9</v>
       </c>
       <c r="C50">
-        <v>97.5</v>
+        <v>103.5</v>
       </c>
       <c r="D50">
-        <v>87.3</v>
+        <v>87.2</v>
       </c>
       <c r="E50">
-        <v>101</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>96.2</v>
+      </c>
+      <c r="C51">
+        <v>97.5</v>
+      </c>
+      <c r="D51">
+        <v>87.3</v>
+      </c>
+      <c r="E51">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>95.6</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>109.7</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>81.900000000000006</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <v>109.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>